--- a/CashFlow/ECL_cashflow.xlsx
+++ b/CashFlow/ECL_cashflow.xlsx
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5149000000.0</v>
+        <v>1193500000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5332000000.0</v>
+        <v>-179500000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4111500000.0</v>
+        <v>-111600000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2832900000.0</v>
+        <v>-78000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1635300000.0</v>
+        <v>79300000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>22300000.0</v>
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1183900000.0</v>
+        <v>4485000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1335900000.0</v>
+        <v>4637000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2575800000.0</v>
+        <v>4760000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
